--- a/Files/Groepskas 2526.xlsx
+++ b/Files/Groepskas 2526.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\ScoutsWallet\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D43376-FD72-4A90-A1B1-3E647A6D4A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFA5F5F-9987-4ED7-9AA9-1DCACE94F152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Files/Groepskas 2526.xlsx
+++ b/Files/Groepskas 2526.xlsx
@@ -8,28 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\ScoutsWallet\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFA5F5F-9987-4ED7-9AA9-1DCACE94F152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE33BAA2-B0C7-45BE-9873-7350249C6846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4185" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Algemeen" sheetId="1" r:id="rId1"/>
     <sheet name="Sjabloon" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 

--- a/Files/Groepskas 2526.xlsx
+++ b/Files/Groepskas 2526.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\ScoutsWallet\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE33BAA2-B0C7-45BE-9873-7350249C6846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6462A6-22FC-4995-87BC-9E1FA160AA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4185" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="4185" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Algemeen" sheetId="1" r:id="rId1"/>
